--- a/natmiOut/OldD7/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25124740905249</v>
+        <v>1.257727</v>
       </c>
       <c r="N2">
-        <v>1.25124740905249</v>
+        <v>3.773181</v>
       </c>
       <c r="O2">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="P2">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="Q2">
-        <v>128.8820827604597</v>
+        <v>130.0836075053683</v>
       </c>
       <c r="R2">
-        <v>128.8820827604597</v>
+        <v>1170.752467548315</v>
       </c>
       <c r="S2">
-        <v>0.09795100252158188</v>
+        <v>0.09030659888922057</v>
       </c>
       <c r="T2">
-        <v>0.09795100252158188</v>
+        <v>0.09030659888922057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H3">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03224213136763</v>
+        <v>2.112352666666667</v>
       </c>
       <c r="N3">
-        <v>2.03224213136763</v>
+        <v>6.337058</v>
       </c>
       <c r="O3">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="P3">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="Q3">
-        <v>209.3267859491955</v>
+        <v>218.4754364051856</v>
       </c>
       <c r="R3">
-        <v>209.3267859491955</v>
+        <v>1966.27892764667</v>
       </c>
       <c r="S3">
-        <v>0.1590893636972998</v>
+        <v>0.1516699450526562</v>
       </c>
       <c r="T3">
-        <v>0.1590893636972998</v>
+        <v>0.1516699450526562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>215.340949014042</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H4">
-        <v>215.340949014042</v>
+        <v>310.282615</v>
       </c>
       <c r="I4">
-        <v>0.53737641218506</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J4">
-        <v>0.53737641218506</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.25124740905249</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N4">
-        <v>1.25124740905249</v>
+        <v>0.274778</v>
       </c>
       <c r="O4">
-        <v>0.381072451624863</v>
+        <v>0.02645908042326748</v>
       </c>
       <c r="P4">
-        <v>0.381072451624863</v>
+        <v>0.02645908042326749</v>
       </c>
       <c r="Q4">
-        <v>269.4448045167244</v>
+        <v>9.473204042718891</v>
       </c>
       <c r="R4">
-        <v>269.4448045167244</v>
+        <v>85.25883638447002</v>
       </c>
       <c r="S4">
-        <v>0.2047793468367337</v>
+        <v>0.006576484570865339</v>
       </c>
       <c r="T4">
-        <v>0.2047793468367337</v>
+        <v>0.006576484570865339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H5">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I5">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J5">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.03224213136763</v>
+        <v>1.257727</v>
       </c>
       <c r="N5">
-        <v>2.03224213136763</v>
+        <v>3.773181</v>
       </c>
       <c r="O5">
-        <v>0.6189275483751369</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="P5">
-        <v>0.6189275483751369</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="Q5">
-        <v>437.6249491950249</v>
+        <v>271.833214424853</v>
       </c>
       <c r="R5">
-        <v>437.6249491950249</v>
+        <v>2446.498929823677</v>
       </c>
       <c r="S5">
-        <v>0.3325970653483262</v>
+        <v>0.1887119640252875</v>
       </c>
       <c r="T5">
-        <v>0.3325970653483262</v>
+        <v>0.1887119640252875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.6543442203264</v>
+        <v>216.130539</v>
       </c>
       <c r="H6">
-        <v>59.6543442203264</v>
+        <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J6">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25124740905249</v>
+        <v>2.112352666666667</v>
       </c>
       <c r="N6">
-        <v>1.25124740905249</v>
+        <v>6.337058</v>
       </c>
       <c r="O6">
-        <v>0.381072451624863</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="P6">
-        <v>0.381072451624863</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="Q6">
-        <v>74.6423436444088</v>
+        <v>456.543920404754</v>
       </c>
       <c r="R6">
-        <v>74.6423436444088</v>
+        <v>4108.895283642786</v>
       </c>
       <c r="S6">
-        <v>0.05672854002614961</v>
+        <v>0.3169417691126294</v>
       </c>
       <c r="T6">
-        <v>0.05672854002614961</v>
+        <v>0.3169417691126294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.6543442203264</v>
+        <v>216.130539</v>
       </c>
       <c r="H7">
-        <v>59.6543442203264</v>
+        <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J7">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.03224213136763</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N7">
-        <v>2.03224213136763</v>
+        <v>0.274778</v>
       </c>
       <c r="O7">
-        <v>0.6189275483751369</v>
+        <v>0.02645908042326748</v>
       </c>
       <c r="P7">
-        <v>0.6189275483751369</v>
+        <v>0.02645908042326749</v>
       </c>
       <c r="Q7">
-        <v>121.2320716436544</v>
+        <v>19.795972415114</v>
       </c>
       <c r="R7">
-        <v>121.2320716436544</v>
+        <v>178.163751736026</v>
       </c>
       <c r="S7">
-        <v>0.092136957294015</v>
+        <v>0.01374275340911036</v>
       </c>
       <c r="T7">
-        <v>0.092136957294015</v>
+        <v>0.01374275340911036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.7282930447673</v>
+        <v>71.607325</v>
       </c>
       <c r="H8">
-        <v>22.7282930447673</v>
+        <v>214.821975</v>
       </c>
       <c r="I8">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J8">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.25124740905249</v>
+        <v>1.257727</v>
       </c>
       <c r="N8">
-        <v>1.25124740905249</v>
+        <v>3.773181</v>
       </c>
       <c r="O8">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="P8">
-        <v>0.381072451624863</v>
+        <v>0.3633293041311343</v>
       </c>
       <c r="Q8">
-        <v>28.43871778445082</v>
+        <v>90.06246605027501</v>
       </c>
       <c r="R8">
-        <v>28.43871778445082</v>
+        <v>810.5621944524751</v>
       </c>
       <c r="S8">
-        <v>0.0216135622403978</v>
+        <v>0.06252313533233297</v>
       </c>
       <c r="T8">
-        <v>0.0216135622403978</v>
+        <v>0.06252313533233297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.7282930447673</v>
+        <v>71.607325</v>
       </c>
       <c r="H9">
-        <v>22.7282930447673</v>
+        <v>214.821975</v>
       </c>
       <c r="I9">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J9">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.03224213136763</v>
+        <v>2.112352666666667</v>
       </c>
       <c r="N9">
-        <v>2.03224213136763</v>
+        <v>6.337058</v>
       </c>
       <c r="O9">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="P9">
-        <v>0.6189275483751369</v>
+        <v>0.6102116154455982</v>
       </c>
       <c r="Q9">
-        <v>46.18939469964599</v>
+        <v>151.2599239166167</v>
       </c>
       <c r="R9">
-        <v>46.18939469964599</v>
+        <v>1361.33931524955</v>
       </c>
       <c r="S9">
-        <v>0.03510416203549584</v>
+        <v>0.1050076142498447</v>
       </c>
       <c r="T9">
-        <v>0.03510416203549584</v>
+        <v>0.1050076142498447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>71.607325</v>
+      </c>
+      <c r="H10">
+        <v>214.821975</v>
+      </c>
+      <c r="I10">
+        <v>0.1720839321833696</v>
+      </c>
+      <c r="J10">
+        <v>0.1720839321833696</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.274778</v>
+      </c>
+      <c r="O10">
+        <v>0.02645908042326748</v>
+      </c>
+      <c r="P10">
+        <v>0.02645908042326749</v>
+      </c>
+      <c r="Q10">
+        <v>6.558705849616667</v>
+      </c>
+      <c r="R10">
+        <v>59.02835264655</v>
+      </c>
+      <c r="S10">
+        <v>0.004553182601191883</v>
+      </c>
+      <c r="T10">
+        <v>0.004553182601191884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24.953198</v>
+      </c>
+      <c r="H11">
+        <v>74.859594</v>
+      </c>
+      <c r="I11">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="J11">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.257727</v>
+      </c>
+      <c r="N11">
+        <v>3.773181</v>
+      </c>
+      <c r="O11">
+        <v>0.3633293041311343</v>
+      </c>
+      <c r="P11">
+        <v>0.3633293041311343</v>
+      </c>
+      <c r="Q11">
+        <v>31.384310860946</v>
+      </c>
+      <c r="R11">
+        <v>282.458797748514</v>
+      </c>
+      <c r="S11">
+        <v>0.02178760588429327</v>
+      </c>
+      <c r="T11">
+        <v>0.02178760588429327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>24.953198</v>
+      </c>
+      <c r="H12">
+        <v>74.859594</v>
+      </c>
+      <c r="I12">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="J12">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.112352666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.337058</v>
+      </c>
+      <c r="O12">
+        <v>0.6102116154455982</v>
+      </c>
+      <c r="P12">
+        <v>0.6102116154455982</v>
+      </c>
+      <c r="Q12">
+        <v>52.70995433716134</v>
+      </c>
+      <c r="R12">
+        <v>474.389589034452</v>
+      </c>
+      <c r="S12">
+        <v>0.03659228703046786</v>
+      </c>
+      <c r="T12">
+        <v>0.03659228703046785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>24.953198</v>
+      </c>
+      <c r="H13">
+        <v>74.859594</v>
+      </c>
+      <c r="I13">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="J13">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.274778</v>
+      </c>
+      <c r="O13">
+        <v>0.02645908042326748</v>
+      </c>
+      <c r="P13">
+        <v>0.02645908042326749</v>
+      </c>
+      <c r="Q13">
+        <v>2.285529946681333</v>
+      </c>
+      <c r="R13">
+        <v>20.569769520132</v>
+      </c>
+      <c r="S13">
+        <v>0.001586659842099898</v>
+      </c>
+      <c r="T13">
+        <v>0.001586659842099898</v>
       </c>
     </row>
   </sheetData>
